--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3875.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3875.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.724879362562981</v>
+        <v>2.772266626358032</v>
       </c>
       <c r="B1">
-        <v>2.730977034116489</v>
+        <v>2.601320505142212</v>
       </c>
       <c r="C1">
-        <v>2.92229402569318</v>
+        <v>2.89776086807251</v>
       </c>
       <c r="D1">
-        <v>3.326554327960797</v>
+        <v>3.912126302719116</v>
       </c>
       <c r="E1">
-        <v>2.543462570472026</v>
+        <v>4.896999835968018</v>
       </c>
     </row>
   </sheetData>
